--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H2">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I2">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J2">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>6189.859227633702</v>
+        <v>3098.650082391316</v>
       </c>
       <c r="R2">
-        <v>55708.73304870332</v>
+        <v>27887.85074152185</v>
       </c>
       <c r="S2">
-        <v>0.03344944620181483</v>
+        <v>0.01797414316096817</v>
       </c>
       <c r="T2">
-        <v>0.03344944620181484</v>
+        <v>0.01797414316096817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H3">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I3">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J3">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>6805.530415820887</v>
+        <v>3589.900750145992</v>
       </c>
       <c r="R3">
-        <v>61249.77374238798</v>
+        <v>32309.10675131393</v>
       </c>
       <c r="S3">
-        <v>0.03677647829251836</v>
+        <v>0.02082370977719273</v>
       </c>
       <c r="T3">
-        <v>0.03677647829251836</v>
+        <v>0.02082370977719273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H4">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I4">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J4">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>3772.18446968712</v>
+        <v>2724.887375302336</v>
       </c>
       <c r="R4">
-        <v>33949.66022718408</v>
+        <v>24523.98637772102</v>
       </c>
       <c r="S4">
-        <v>0.02038454782926568</v>
+        <v>0.01580608151256681</v>
       </c>
       <c r="T4">
-        <v>0.02038454782926568</v>
+        <v>0.01580608151256681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H5">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I5">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J5">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>2745.210798049502</v>
+        <v>1398.555466052538</v>
       </c>
       <c r="R5">
-        <v>24706.89718244552</v>
+        <v>12586.99919447284</v>
       </c>
       <c r="S5">
-        <v>0.01483487386789921</v>
+        <v>0.008112512060730426</v>
       </c>
       <c r="T5">
-        <v>0.01483487386789921</v>
+        <v>0.008112512060730426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>412.424102</v>
       </c>
       <c r="I6">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J6">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>21106.35570154748</v>
+        <v>20030.16625996043</v>
       </c>
       <c r="R6">
-        <v>189957.2013139273</v>
+        <v>180271.4963396439</v>
       </c>
       <c r="S6">
-        <v>0.1140568603569314</v>
+        <v>0.1161877160446209</v>
       </c>
       <c r="T6">
-        <v>0.1140568603569314</v>
+        <v>0.1161877160446208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>412.424102</v>
       </c>
       <c r="I7">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J7">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>23205.68859672234</v>
@@ -883,10 +883,10 @@
         <v>208851.1973705011</v>
       </c>
       <c r="S7">
-        <v>0.1254014677469279</v>
+        <v>0.1346077672198612</v>
       </c>
       <c r="T7">
-        <v>0.1254014677469279</v>
+        <v>0.1346077672198612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>412.424102</v>
       </c>
       <c r="I8">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J8">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>12862.50046424822</v>
+        <v>17614.10476037104</v>
       </c>
       <c r="R8">
-        <v>115762.5041782339</v>
+        <v>158526.9428433393</v>
       </c>
       <c r="S8">
-        <v>0.06950780324355861</v>
+        <v>0.1021730212179596</v>
       </c>
       <c r="T8">
-        <v>0.06950780324355861</v>
+        <v>0.1021730212179595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>412.424102</v>
       </c>
       <c r="I9">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J9">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>9360.696818546552</v>
+        <v>9040.484651042019</v>
       </c>
       <c r="R9">
-        <v>84246.27136691895</v>
+        <v>81364.36185937817</v>
       </c>
       <c r="S9">
-        <v>0.05058436922856642</v>
+        <v>0.05244056638914282</v>
       </c>
       <c r="T9">
-        <v>0.05058436922856642</v>
+        <v>0.05244056638914281</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H10">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I10">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J10">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>18846.6473551991</v>
+        <v>17749.2779740611</v>
       </c>
       <c r="R10">
-        <v>169619.8261967919</v>
+        <v>159743.5017665499</v>
       </c>
       <c r="S10">
-        <v>0.1018455983583499</v>
+        <v>0.1029571119122267</v>
       </c>
       <c r="T10">
-        <v>0.1018455983583499</v>
+        <v>0.1029571119122267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H11">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I11">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J11">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>20721.21951327322</v>
+        <v>20563.19513962628</v>
       </c>
       <c r="R11">
-        <v>186490.975619459</v>
+        <v>185068.7562566365</v>
       </c>
       <c r="S11">
-        <v>0.1119756188074403</v>
+        <v>0.1192796228870516</v>
       </c>
       <c r="T11">
-        <v>0.1119756188074403</v>
+        <v>0.1192796228870516</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H12">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I12">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J12">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>11485.40343883229</v>
+        <v>15608.33982097341</v>
       </c>
       <c r="R12">
-        <v>103368.6309494906</v>
+        <v>140475.0583887607</v>
       </c>
       <c r="S12">
-        <v>0.0620660939619182</v>
+        <v>0.09053830764611882</v>
       </c>
       <c r="T12">
-        <v>0.06206609396191819</v>
+        <v>0.09053830764611882</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H13">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I13">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J13">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>8358.513162229441</v>
+        <v>8011.020628038189</v>
       </c>
       <c r="R13">
-        <v>75226.61846006497</v>
+        <v>72099.1856523437</v>
       </c>
       <c r="S13">
-        <v>0.04516865829500252</v>
+        <v>0.04646901967152917</v>
       </c>
       <c r="T13">
-        <v>0.04516865829500252</v>
+        <v>0.04646901967152917</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H14">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I14">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J14">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>12559.19950592737</v>
+        <v>8529.20240957753</v>
       </c>
       <c r="R14">
-        <v>113032.7955533463</v>
+        <v>76762.82168619777</v>
       </c>
       <c r="S14">
-        <v>0.06786879196475276</v>
+        <v>0.04947480389276847</v>
       </c>
       <c r="T14">
-        <v>0.06786879196475278</v>
+        <v>0.04947480389276847</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H15">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I15">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J15">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>13808.39387338153</v>
+        <v>9881.396515949888</v>
       </c>
       <c r="R15">
-        <v>124275.5448604338</v>
+        <v>88932.56864354898</v>
       </c>
       <c r="S15">
-        <v>0.07461932671087848</v>
+        <v>0.05731839055247859</v>
       </c>
       <c r="T15">
-        <v>0.07461932671087848</v>
+        <v>0.05731839055247857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H16">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I16">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J16">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>7653.747134742582</v>
+        <v>7500.400286992151</v>
       </c>
       <c r="R16">
-        <v>68883.72421268324</v>
+        <v>67503.60258292935</v>
       </c>
       <c r="S16">
-        <v>0.04136016565335314</v>
+        <v>0.04350709661896527</v>
       </c>
       <c r="T16">
-        <v>0.04136016565335314</v>
+        <v>0.04350709661896526</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H17">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I17">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J17">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>5570.021680720858</v>
+        <v>3849.599772097378</v>
       </c>
       <c r="R17">
-        <v>50130.19512648773</v>
+        <v>34646.3979488764</v>
       </c>
       <c r="S17">
-        <v>0.03009989948082226</v>
+        <v>0.02233012943581882</v>
       </c>
       <c r="T17">
-        <v>0.03009989948082227</v>
+        <v>0.02233012943581881</v>
       </c>
     </row>
   </sheetData>
